--- a/内訳書.xlsx
+++ b/内訳書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikunot\Documents\GitHub\mapping_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04B7607B-96EB-492F-B68E-423286AEF0FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1275B6F-DDBD-4CA8-946B-59A47369742D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5988" yWindow="2568" windowWidth="5328" windowHeight="8136" xr2:uid="{E49C6DDD-E0DE-4098-A19A-26B532495E68}"/>
   </bookViews>
@@ -38,35 +38,6 @@
     <t>No.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>名称　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>は必要に応じて計上する。また、別紙明細－○は具体な内容を明細で示している。</t>
-    </r>
-  </si>
-  <si>
     <t>直接工事費</t>
   </si>
   <si>
@@ -7825,6 +7796,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -8200,7 +8174,7 @@
   <dimension ref="A1:F798"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8215,13 +8189,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>729</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8229,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8237,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8245,7 +8219,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8253,10 +8227,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8264,10 +8238,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8275,10 +8249,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8286,10 +8260,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8297,10 +8271,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8308,7 +8282,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8316,7 +8290,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8324,7 +8298,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8332,7 +8306,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8340,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8348,7 +8322,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8356,7 +8330,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8364,7 +8338,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8372,7 +8346,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8380,7 +8354,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8388,7 +8362,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8396,7 +8370,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8404,7 +8378,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8412,7 +8386,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8420,7 +8394,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8428,7 +8402,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8436,7 +8410,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8444,7 +8418,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8452,7 +8426,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8460,7 +8434,7 @@
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8468,7 +8442,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8476,7 +8450,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8484,7 +8458,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8492,7 +8466,7 @@
         <v>31</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8500,7 +8474,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8508,7 +8482,7 @@
         <v>33</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8516,7 +8490,7 @@
         <v>34</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8524,7 +8498,7 @@
         <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8532,7 +8506,7 @@
         <v>36</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8540,7 +8514,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8548,7 +8522,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -8556,7 +8530,7 @@
         <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -8564,7 +8538,7 @@
         <v>40</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -8572,7 +8546,7 @@
         <v>41</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -8580,7 +8554,7 @@
         <v>42</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -8588,7 +8562,7 @@
         <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -8596,7 +8570,7 @@
         <v>44</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -8604,7 +8578,7 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -8612,7 +8586,7 @@
         <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8620,7 +8594,7 @@
         <v>47</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8628,7 +8602,7 @@
         <v>48</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8636,7 +8610,7 @@
         <v>49</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8644,7 +8618,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8652,10 +8626,10 @@
         <v>51</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8663,7 +8637,7 @@
         <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8671,7 +8645,7 @@
         <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8679,7 +8653,7 @@
         <v>54</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8687,10 +8661,10 @@
         <v>55</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8698,7 +8672,7 @@
         <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8706,7 +8680,7 @@
         <v>57</v>
       </c>
       <c r="F59" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8714,7 +8688,7 @@
         <v>58</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8722,10 +8696,10 @@
         <v>59</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8733,7 +8707,7 @@
         <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8741,7 +8715,7 @@
         <v>61</v>
       </c>
       <c r="F63" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8749,7 +8723,7 @@
         <v>62</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8757,10 +8731,10 @@
         <v>63</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8768,7 +8742,7 @@
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8776,7 +8750,7 @@
         <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8784,7 +8758,7 @@
         <v>66</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8792,10 +8766,10 @@
         <v>67</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8803,7 +8777,7 @@
         <v>68</v>
       </c>
       <c r="F70" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8811,7 +8785,7 @@
         <v>69</v>
       </c>
       <c r="F71" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8819,7 +8793,7 @@
         <v>70</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8827,10 +8801,10 @@
         <v>71</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8838,7 +8812,7 @@
         <v>72</v>
       </c>
       <c r="F74" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8846,7 +8820,7 @@
         <v>73</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8854,10 +8828,10 @@
         <v>74</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8865,7 +8839,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8873,7 +8847,7 @@
         <v>76</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8881,10 +8855,10 @@
         <v>77</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F79" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8892,7 +8866,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8900,7 +8874,7 @@
         <v>79</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8908,10 +8882,10 @@
         <v>80</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8919,7 +8893,7 @@
         <v>81</v>
       </c>
       <c r="F83" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8927,7 +8901,7 @@
         <v>82</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8935,10 +8909,10 @@
         <v>83</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8946,7 +8920,7 @@
         <v>84</v>
       </c>
       <c r="F86" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8954,7 +8928,7 @@
         <v>85</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8962,10 +8936,10 @@
         <v>86</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8973,7 +8947,7 @@
         <v>87</v>
       </c>
       <c r="F89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8981,7 +8955,7 @@
         <v>88</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8989,10 +8963,10 @@
         <v>89</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9000,7 +8974,7 @@
         <v>90</v>
       </c>
       <c r="F92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9008,7 +8982,7 @@
         <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9016,10 +8990,10 @@
         <v>92</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9027,7 +9001,7 @@
         <v>93</v>
       </c>
       <c r="F95" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9035,7 +9009,7 @@
         <v>94</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9043,10 +9017,10 @@
         <v>95</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9054,7 +9028,7 @@
         <v>96</v>
       </c>
       <c r="F98" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9062,7 +9036,7 @@
         <v>97</v>
       </c>
       <c r="F99" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9070,7 +9044,7 @@
         <v>98</v>
       </c>
       <c r="F100" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9078,7 +9052,7 @@
         <v>99</v>
       </c>
       <c r="F101" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9086,7 +9060,7 @@
         <v>100</v>
       </c>
       <c r="F102" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9094,7 +9068,7 @@
         <v>101</v>
       </c>
       <c r="F103" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9102,7 +9076,7 @@
         <v>102</v>
       </c>
       <c r="F104" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -9110,7 +9084,7 @@
         <v>103</v>
       </c>
       <c r="F105" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -9118,7 +9092,7 @@
         <v>104</v>
       </c>
       <c r="F106" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -9126,7 +9100,7 @@
         <v>105</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -9134,10 +9108,10 @@
         <v>106</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9145,7 +9119,7 @@
         <v>107</v>
       </c>
       <c r="F109" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -9153,7 +9127,7 @@
         <v>108</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -9161,10 +9135,10 @@
         <v>109</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -9172,7 +9146,7 @@
         <v>110</v>
       </c>
       <c r="F112" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -9180,7 +9154,7 @@
         <v>111</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -9188,10 +9162,10 @@
         <v>112</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -9199,7 +9173,7 @@
         <v>113</v>
       </c>
       <c r="F115" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -9207,7 +9181,7 @@
         <v>114</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -9215,10 +9189,10 @@
         <v>115</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -9226,7 +9200,7 @@
         <v>116</v>
       </c>
       <c r="F118" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -9234,7 +9208,7 @@
         <v>117</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -9242,10 +9216,10 @@
         <v>118</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -9253,7 +9227,7 @@
         <v>119</v>
       </c>
       <c r="F121" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -9261,7 +9235,7 @@
         <v>120</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -9269,7 +9243,7 @@
         <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -9277,7 +9251,7 @@
         <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -9285,7 +9259,7 @@
         <v>123</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -9293,7 +9267,7 @@
         <v>124</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -9301,7 +9275,7 @@
         <v>125</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -9309,7 +9283,7 @@
         <v>126</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9317,7 +9291,7 @@
         <v>127</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9325,7 +9299,7 @@
         <v>128</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -9333,7 +9307,7 @@
         <v>129</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -9341,7 +9315,7 @@
         <v>130</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -9349,7 +9323,7 @@
         <v>131</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -9357,7 +9331,7 @@
         <v>132</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -9365,7 +9339,7 @@
         <v>133</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -9373,7 +9347,7 @@
         <v>134</v>
       </c>
       <c r="E136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9381,10 +9355,10 @@
         <v>135</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -9392,10 +9366,10 @@
         <v>136</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F138" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -9403,7 +9377,7 @@
         <v>137</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -9411,7 +9385,7 @@
         <v>138</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -9419,10 +9393,10 @@
         <v>139</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F141" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -9430,10 +9404,10 @@
         <v>140</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F142" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -9441,10 +9415,10 @@
         <v>141</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F143" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -9452,10 +9426,10 @@
         <v>142</v>
       </c>
       <c r="E144" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -9463,10 +9437,10 @@
         <v>143</v>
       </c>
       <c r="E145" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -9474,10 +9448,10 @@
         <v>144</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F146" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -9485,10 +9459,10 @@
         <v>145</v>
       </c>
       <c r="E147" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -9496,10 +9470,10 @@
         <v>146</v>
       </c>
       <c r="E148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -9507,10 +9481,10 @@
         <v>147</v>
       </c>
       <c r="E149" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -9518,7 +9492,7 @@
         <v>148</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -9526,7 +9500,7 @@
         <v>149</v>
       </c>
       <c r="E151" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -9534,7 +9508,7 @@
         <v>150</v>
       </c>
       <c r="E152" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -9542,10 +9516,10 @@
         <v>151</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -9553,10 +9527,10 @@
         <v>152</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -9564,10 +9538,10 @@
         <v>153</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -9575,10 +9549,10 @@
         <v>154</v>
       </c>
       <c r="E156" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -9586,7 +9560,7 @@
         <v>155</v>
       </c>
       <c r="E157" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -9594,7 +9568,7 @@
         <v>156</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -9602,7 +9576,7 @@
         <v>157</v>
       </c>
       <c r="E159" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -9610,10 +9584,10 @@
         <v>158</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -9621,10 +9595,10 @@
         <v>159</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -9632,7 +9606,7 @@
         <v>160</v>
       </c>
       <c r="E162" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -9640,7 +9614,7 @@
         <v>161</v>
       </c>
       <c r="E163" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -9648,7 +9622,7 @@
         <v>162</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -9656,7 +9630,7 @@
         <v>163</v>
       </c>
       <c r="E165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -9664,10 +9638,10 @@
         <v>164</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -9675,7 +9649,7 @@
         <v>165</v>
       </c>
       <c r="E167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -9683,10 +9657,10 @@
         <v>166</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -9694,10 +9668,10 @@
         <v>167</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -9705,7 +9679,7 @@
         <v>168</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -9713,10 +9687,10 @@
         <v>169</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -9724,7 +9698,7 @@
         <v>170</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -9732,7 +9706,7 @@
         <v>171</v>
       </c>
       <c r="E173" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -9740,7 +9714,7 @@
         <v>172</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -9748,7 +9722,7 @@
         <v>173</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -9756,7 +9730,7 @@
         <v>174</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -9764,7 +9738,7 @@
         <v>175</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -9772,7 +9746,7 @@
         <v>176</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -9780,7 +9754,7 @@
         <v>177</v>
       </c>
       <c r="E179" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -9788,7 +9762,7 @@
         <v>178</v>
       </c>
       <c r="E180" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -9796,10 +9770,10 @@
         <v>179</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -9807,7 +9781,7 @@
         <v>180</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -9815,10 +9789,10 @@
         <v>181</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -9826,10 +9800,10 @@
         <v>182</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -9837,10 +9811,10 @@
         <v>183</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -9848,10 +9822,10 @@
         <v>184</v>
       </c>
       <c r="E186" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -9859,10 +9833,10 @@
         <v>185</v>
       </c>
       <c r="E187" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -9870,10 +9844,10 @@
         <v>186</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -9881,10 +9855,10 @@
         <v>187</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -9892,10 +9866,10 @@
         <v>188</v>
       </c>
       <c r="E190" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -9903,7 +9877,7 @@
         <v>189</v>
       </c>
       <c r="E191" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -9911,7 +9885,7 @@
         <v>190</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -9919,7 +9893,7 @@
         <v>191</v>
       </c>
       <c r="E193" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -9927,10 +9901,10 @@
         <v>192</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -9938,10 +9912,10 @@
         <v>193</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -9949,7 +9923,7 @@
         <v>194</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -9957,7 +9931,7 @@
         <v>195</v>
       </c>
       <c r="E197" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -9965,10 +9939,10 @@
         <v>196</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -9976,10 +9950,10 @@
         <v>197</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -9987,7 +9961,7 @@
         <v>198</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -9995,7 +9969,7 @@
         <v>199</v>
       </c>
       <c r="E201" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -10003,7 +9977,7 @@
         <v>200</v>
       </c>
       <c r="E202" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -10011,10 +9985,10 @@
         <v>201</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -10022,10 +9996,10 @@
         <v>202</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -10033,10 +10007,10 @@
         <v>203</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -10044,7 +10018,7 @@
         <v>204</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -10052,7 +10026,7 @@
         <v>205</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -10060,7 +10034,7 @@
         <v>206</v>
       </c>
       <c r="E208" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -10068,10 +10042,10 @@
         <v>207</v>
       </c>
       <c r="E209" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -10079,7 +10053,7 @@
         <v>208</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -10087,7 +10061,7 @@
         <v>209</v>
       </c>
       <c r="E211" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -10095,7 +10069,7 @@
         <v>210</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -10103,7 +10077,7 @@
         <v>211</v>
       </c>
       <c r="E213" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -10111,10 +10085,10 @@
         <v>212</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -10122,7 +10096,7 @@
         <v>213</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -10130,7 +10104,7 @@
         <v>214</v>
       </c>
       <c r="E216" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -10138,10 +10112,10 @@
         <v>215</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -10149,7 +10123,7 @@
         <v>216</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -10157,7 +10131,7 @@
         <v>217</v>
       </c>
       <c r="E219" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -10165,7 +10139,7 @@
         <v>218</v>
       </c>
       <c r="E220" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -10173,10 +10147,10 @@
         <v>219</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -10184,10 +10158,10 @@
         <v>220</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -10195,10 +10169,10 @@
         <v>221</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -10206,10 +10180,10 @@
         <v>222</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -10217,10 +10191,10 @@
         <v>223</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -10228,10 +10202,10 @@
         <v>224</v>
       </c>
       <c r="E226" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -10239,7 +10213,7 @@
         <v>225</v>
       </c>
       <c r="E227" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -10247,10 +10221,10 @@
         <v>226</v>
       </c>
       <c r="E228" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -10258,7 +10232,7 @@
         <v>227</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -10266,10 +10240,10 @@
         <v>228</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -10277,10 +10251,10 @@
         <v>229</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -10288,10 +10262,10 @@
         <v>230</v>
       </c>
       <c r="E232" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -10299,7 +10273,7 @@
         <v>231</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -10307,7 +10281,7 @@
         <v>232</v>
       </c>
       <c r="E234" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -10315,10 +10289,10 @@
         <v>233</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -10326,10 +10300,10 @@
         <v>234</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -10337,7 +10311,7 @@
         <v>235</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -10345,7 +10319,7 @@
         <v>236</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -10353,7 +10327,7 @@
         <v>237</v>
       </c>
       <c r="E239" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -10361,10 +10335,10 @@
         <v>238</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -10372,10 +10346,10 @@
         <v>239</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -10383,7 +10357,7 @@
         <v>240</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -10391,7 +10365,7 @@
         <v>241</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -10399,7 +10373,7 @@
         <v>242</v>
       </c>
       <c r="E244" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -10407,7 +10381,7 @@
         <v>243</v>
       </c>
       <c r="E245" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -10415,7 +10389,7 @@
         <v>244</v>
       </c>
       <c r="E246" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -10423,10 +10397,10 @@
         <v>245</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -10434,10 +10408,10 @@
         <v>246</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -10445,10 +10419,10 @@
         <v>247</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -10456,10 +10430,10 @@
         <v>248</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -10467,10 +10441,10 @@
         <v>249</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -10478,7 +10452,7 @@
         <v>250</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -10486,7 +10460,7 @@
         <v>251</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -10494,7 +10468,7 @@
         <v>252</v>
       </c>
       <c r="E254" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -10502,10 +10476,10 @@
         <v>253</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -10513,10 +10487,10 @@
         <v>254</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -10524,10 +10498,10 @@
         <v>255</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -10535,7 +10509,7 @@
         <v>256</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -10543,10 +10517,10 @@
         <v>257</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -10554,10 +10528,10 @@
         <v>258</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -10565,10 +10539,10 @@
         <v>259</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -10576,10 +10550,10 @@
         <v>260</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -10587,10 +10561,10 @@
         <v>261</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -10598,7 +10572,7 @@
         <v>262</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -10606,7 +10580,7 @@
         <v>263</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -10614,7 +10588,7 @@
         <v>264</v>
       </c>
       <c r="E266" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -10622,10 +10596,10 @@
         <v>265</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -10633,10 +10607,10 @@
         <v>266</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -10644,10 +10618,10 @@
         <v>267</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -10655,10 +10629,10 @@
         <v>268</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -10666,10 +10640,10 @@
         <v>269</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -10677,10 +10651,10 @@
         <v>270</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -10688,7 +10662,7 @@
         <v>271</v>
       </c>
       <c r="E273" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -10696,10 +10670,10 @@
         <v>272</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -10707,10 +10681,10 @@
         <v>273</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -10718,10 +10692,10 @@
         <v>274</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -10729,10 +10703,10 @@
         <v>275</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -10740,7 +10714,7 @@
         <v>276</v>
       </c>
       <c r="E278" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -10748,7 +10722,7 @@
         <v>277</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -10756,7 +10730,7 @@
         <v>278</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -10764,7 +10738,7 @@
         <v>279</v>
       </c>
       <c r="E281" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -10772,10 +10746,10 @@
         <v>280</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -10783,10 +10757,10 @@
         <v>281</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -10794,7 +10768,7 @@
         <v>282</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -10802,7 +10776,7 @@
         <v>283</v>
       </c>
       <c r="E285" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -10810,7 +10784,7 @@
         <v>284</v>
       </c>
       <c r="E286" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -10818,10 +10792,10 @@
         <v>285</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -10829,10 +10803,10 @@
         <v>286</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -10840,10 +10814,10 @@
         <v>287</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -10851,10 +10825,10 @@
         <v>288</v>
       </c>
       <c r="E290" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -10862,7 +10836,7 @@
         <v>289</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -10870,7 +10844,7 @@
         <v>290</v>
       </c>
       <c r="E292" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -10878,10 +10852,10 @@
         <v>291</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -10889,7 +10863,7 @@
         <v>292</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -10897,10 +10871,10 @@
         <v>293</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -10908,10 +10882,10 @@
         <v>294</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -10919,10 +10893,10 @@
         <v>295</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -10930,7 +10904,7 @@
         <v>296</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -10938,7 +10912,7 @@
         <v>297</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -10946,7 +10920,7 @@
         <v>298</v>
       </c>
       <c r="E300" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -10954,7 +10928,7 @@
         <v>299</v>
       </c>
       <c r="E301" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -10962,10 +10936,10 @@
         <v>300</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -10973,10 +10947,10 @@
         <v>301</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -10984,10 +10958,10 @@
         <v>302</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -10995,10 +10969,10 @@
         <v>303</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -11006,10 +10980,10 @@
         <v>304</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -11017,10 +10991,10 @@
         <v>305</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -11028,10 +11002,10 @@
         <v>306</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -11039,10 +11013,10 @@
         <v>307</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -11050,10 +11024,10 @@
         <v>308</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -11061,10 +11035,10 @@
         <v>309</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -11072,7 +11046,7 @@
         <v>310</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -11080,7 +11054,7 @@
         <v>311</v>
       </c>
       <c r="E313" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -11088,10 +11062,10 @@
         <v>312</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -11099,10 +11073,10 @@
         <v>313</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -11110,10 +11084,10 @@
         <v>314</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -11121,10 +11095,10 @@
         <v>315</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -11132,7 +11106,7 @@
         <v>316</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -11140,7 +11114,7 @@
         <v>317</v>
       </c>
       <c r="E319" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -11148,7 +11122,7 @@
         <v>318</v>
       </c>
       <c r="E320" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -11156,10 +11130,10 @@
         <v>319</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -11167,10 +11141,10 @@
         <v>320</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -11178,10 +11152,10 @@
         <v>321</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -11189,10 +11163,10 @@
         <v>322</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -11200,10 +11174,10 @@
         <v>323</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -11211,7 +11185,7 @@
         <v>324</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -11219,7 +11193,7 @@
         <v>325</v>
       </c>
       <c r="E327" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -11227,10 +11201,10 @@
         <v>326</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -11238,10 +11212,10 @@
         <v>327</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -11249,10 +11223,10 @@
         <v>328</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -11260,10 +11234,10 @@
         <v>329</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -11271,10 +11245,10 @@
         <v>330</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -11282,10 +11256,10 @@
         <v>331</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -11293,10 +11267,10 @@
         <v>332</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -11304,10 +11278,10 @@
         <v>333</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -11315,10 +11289,10 @@
         <v>334</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -11326,10 +11300,10 @@
         <v>335</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -11337,10 +11311,10 @@
         <v>336</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -11348,10 +11322,10 @@
         <v>337</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -11359,10 +11333,10 @@
         <v>338</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -11370,10 +11344,10 @@
         <v>339</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -11381,7 +11355,7 @@
         <v>340</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -11389,7 +11363,7 @@
         <v>341</v>
       </c>
       <c r="E343" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -11397,7 +11371,7 @@
         <v>342</v>
       </c>
       <c r="E344" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -11405,10 +11379,10 @@
         <v>343</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -11416,10 +11390,10 @@
         <v>344</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -11427,10 +11401,10 @@
         <v>345</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -11438,10 +11412,10 @@
         <v>346</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -11449,10 +11423,10 @@
         <v>347</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -11460,10 +11434,10 @@
         <v>348</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -11471,10 +11445,10 @@
         <v>349</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -11482,7 +11456,7 @@
         <v>350</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -11490,7 +11464,7 @@
         <v>351</v>
       </c>
       <c r="E353" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -11498,10 +11472,10 @@
         <v>352</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -11509,10 +11483,10 @@
         <v>353</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -11520,10 +11494,10 @@
         <v>354</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -11531,10 +11505,10 @@
         <v>355</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -11542,10 +11516,10 @@
         <v>356</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -11553,7 +11527,7 @@
         <v>357</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -11561,7 +11535,7 @@
         <v>358</v>
       </c>
       <c r="E360" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -11569,7 +11543,7 @@
         <v>359</v>
       </c>
       <c r="E361" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -11577,10 +11551,10 @@
         <v>360</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -11588,10 +11562,10 @@
         <v>361</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -11599,10 +11573,10 @@
         <v>362</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -11610,10 +11584,10 @@
         <v>363</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -11621,10 +11595,10 @@
         <v>364</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -11632,10 +11606,10 @@
         <v>365</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -11643,10 +11617,10 @@
         <v>366</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -11654,10 +11628,10 @@
         <v>367</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -11665,10 +11639,10 @@
         <v>368</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -11676,10 +11650,10 @@
         <v>369</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -11687,10 +11661,10 @@
         <v>370</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -11698,10 +11672,10 @@
         <v>371</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -11709,10 +11683,10 @@
         <v>372</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -11720,10 +11694,10 @@
         <v>373</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -11731,10 +11705,10 @@
         <v>374</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -11742,10 +11716,10 @@
         <v>375</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -11753,10 +11727,10 @@
         <v>376</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -11764,10 +11738,10 @@
         <v>377</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -11775,10 +11749,10 @@
         <v>378</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -11786,10 +11760,10 @@
         <v>379</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -11797,10 +11771,10 @@
         <v>380</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -11808,10 +11782,10 @@
         <v>381</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -11819,10 +11793,10 @@
         <v>382</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -11830,10 +11804,10 @@
         <v>383</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -11841,7 +11815,7 @@
         <v>384</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -11849,7 +11823,7 @@
         <v>385</v>
       </c>
       <c r="E387" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -11857,10 +11831,10 @@
         <v>386</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -11868,10 +11842,10 @@
         <v>387</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -11879,10 +11853,10 @@
         <v>388</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -11890,10 +11864,10 @@
         <v>389</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -11901,10 +11875,10 @@
         <v>390</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -11912,10 +11886,10 @@
         <v>391</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -11923,7 +11897,7 @@
         <v>392</v>
       </c>
       <c r="E394" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -11931,7 +11905,7 @@
         <v>393</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -11939,7 +11913,7 @@
         <v>394</v>
       </c>
       <c r="E396" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -11947,7 +11921,7 @@
         <v>395</v>
       </c>
       <c r="E397" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -11955,10 +11929,10 @@
         <v>396</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -11966,10 +11940,10 @@
         <v>397</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -11977,10 +11951,10 @@
         <v>398</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -11988,10 +11962,10 @@
         <v>399</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -11999,10 +11973,10 @@
         <v>400</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -12010,10 +11984,10 @@
         <v>401</v>
       </c>
       <c r="E403" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -12021,10 +11995,10 @@
         <v>402</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -12032,7 +12006,7 @@
         <v>403</v>
       </c>
       <c r="E405" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -12040,7 +12014,7 @@
         <v>404</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -12048,7 +12022,7 @@
         <v>405</v>
       </c>
       <c r="E407" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -12056,10 +12030,10 @@
         <v>406</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -12067,10 +12041,10 @@
         <v>407</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -12078,10 +12052,10 @@
         <v>408</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -12089,7 +12063,7 @@
         <v>409</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -12097,7 +12071,7 @@
         <v>410</v>
       </c>
       <c r="E412" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -12105,7 +12079,7 @@
         <v>411</v>
       </c>
       <c r="E413" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -12113,10 +12087,10 @@
         <v>412</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -12124,10 +12098,10 @@
         <v>413</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -12135,10 +12109,10 @@
         <v>414</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -12146,10 +12120,10 @@
         <v>415</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -12157,10 +12131,10 @@
         <v>416</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -12168,10 +12142,10 @@
         <v>417</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -12179,10 +12153,10 @@
         <v>418</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -12190,7 +12164,7 @@
         <v>419</v>
       </c>
       <c r="E421" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -12198,7 +12172,7 @@
         <v>420</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -12206,10 +12180,10 @@
         <v>421</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -12217,10 +12191,10 @@
         <v>422</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -12228,10 +12202,10 @@
         <v>423</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -12239,10 +12213,10 @@
         <v>424</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -12250,10 +12224,10 @@
         <v>425</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -12261,10 +12235,10 @@
         <v>426</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -12272,10 +12246,10 @@
         <v>427</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -12283,10 +12257,10 @@
         <v>428</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -12294,10 +12268,10 @@
         <v>429</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -12305,10 +12279,10 @@
         <v>430</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -12316,10 +12290,10 @@
         <v>431</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -12327,7 +12301,7 @@
         <v>432</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -12335,7 +12309,7 @@
         <v>433</v>
       </c>
       <c r="E435" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -12343,10 +12317,10 @@
         <v>434</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -12354,10 +12328,10 @@
         <v>435</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -12365,10 +12339,10 @@
         <v>436</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -12376,10 +12350,10 @@
         <v>437</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -12387,10 +12361,10 @@
         <v>438</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -12398,10 +12372,10 @@
         <v>439</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -12409,7 +12383,7 @@
         <v>440</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -12417,10 +12391,10 @@
         <v>441</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -12428,10 +12402,10 @@
         <v>442</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -12439,10 +12413,10 @@
         <v>443</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -12450,10 +12424,10 @@
         <v>444</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -12461,10 +12435,10 @@
         <v>445</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -12472,10 +12446,10 @@
         <v>446</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -12483,10 +12457,10 @@
         <v>447</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -12494,7 +12468,7 @@
         <v>448</v>
       </c>
       <c r="E450" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -12502,7 +12476,7 @@
         <v>449</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -12510,10 +12484,10 @@
         <v>450</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -12521,10 +12495,10 @@
         <v>451</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -12532,10 +12506,10 @@
         <v>452</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -12543,10 +12517,10 @@
         <v>453</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -12554,10 +12528,10 @@
         <v>454</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -12565,10 +12539,10 @@
         <v>455</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -12576,10 +12550,10 @@
         <v>456</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -12587,10 +12561,10 @@
         <v>457</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -12598,7 +12572,7 @@
         <v>458</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -12606,7 +12580,7 @@
         <v>459</v>
       </c>
       <c r="E461" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -12614,7 +12588,7 @@
         <v>460</v>
       </c>
       <c r="E462" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -12622,10 +12596,10 @@
         <v>461</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -12633,10 +12607,10 @@
         <v>462</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -12644,10 +12618,10 @@
         <v>463</v>
       </c>
       <c r="E465" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -12655,10 +12629,10 @@
         <v>464</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -12666,10 +12640,10 @@
         <v>465</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -12677,10 +12651,10 @@
         <v>466</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -12688,10 +12662,10 @@
         <v>467</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -12699,10 +12673,10 @@
         <v>468</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -12710,10 +12684,10 @@
         <v>469</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -12721,10 +12695,10 @@
         <v>470</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -12732,10 +12706,10 @@
         <v>471</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -12743,10 +12717,10 @@
         <v>472</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -12754,10 +12728,10 @@
         <v>473</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -12765,7 +12739,7 @@
         <v>474</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -12773,10 +12747,10 @@
         <v>475</v>
       </c>
       <c r="E477" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -12784,7 +12758,7 @@
         <v>476</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -12792,7 +12766,7 @@
         <v>477</v>
       </c>
       <c r="E479" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -12800,10 +12774,10 @@
         <v>478</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -12811,10 +12785,10 @@
         <v>479</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -12822,10 +12796,10 @@
         <v>480</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -12833,10 +12807,10 @@
         <v>481</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -12844,10 +12818,10 @@
         <v>482</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -12855,10 +12829,10 @@
         <v>483</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -12866,10 +12840,10 @@
         <v>484</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -12877,10 +12851,10 @@
         <v>485</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -12888,10 +12862,10 @@
         <v>486</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -12899,10 +12873,10 @@
         <v>487</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -12910,10 +12884,10 @@
         <v>488</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -12921,10 +12895,10 @@
         <v>489</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -12932,7 +12906,7 @@
         <v>490</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -12940,7 +12914,7 @@
         <v>491</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -12948,7 +12922,7 @@
         <v>492</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -12956,7 +12930,7 @@
         <v>493</v>
       </c>
       <c r="E495" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -12964,7 +12938,7 @@
         <v>494</v>
       </c>
       <c r="E496" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -12972,10 +12946,10 @@
         <v>495</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -12983,10 +12957,10 @@
         <v>496</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -12994,10 +12968,10 @@
         <v>497</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -13005,7 +12979,7 @@
         <v>498</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -13013,7 +12987,7 @@
         <v>499</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -13021,7 +12995,7 @@
         <v>500</v>
       </c>
       <c r="E502" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -13029,10 +13003,10 @@
         <v>501</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -13040,10 +13014,10 @@
         <v>502</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -13051,7 +13025,7 @@
         <v>503</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -13059,7 +13033,7 @@
         <v>504</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -13067,7 +13041,7 @@
         <v>505</v>
       </c>
       <c r="E507" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -13075,10 +13049,10 @@
         <v>506</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -13086,10 +13060,10 @@
         <v>507</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -13097,7 +13071,7 @@
         <v>508</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -13105,7 +13079,7 @@
         <v>509</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -13113,7 +13087,7 @@
         <v>510</v>
       </c>
       <c r="E512" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -13121,10 +13095,10 @@
         <v>511</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -13132,7 +13106,7 @@
         <v>512</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -13140,7 +13114,7 @@
         <v>513</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -13148,7 +13122,7 @@
         <v>514</v>
       </c>
       <c r="E516" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -13156,10 +13130,10 @@
         <v>515</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -13167,10 +13141,10 @@
         <v>516</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -13178,7 +13152,7 @@
         <v>517</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -13186,7 +13160,7 @@
         <v>518</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -13194,7 +13168,7 @@
         <v>519</v>
       </c>
       <c r="E521" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -13202,10 +13176,10 @@
         <v>520</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -13213,10 +13187,10 @@
         <v>521</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -13224,10 +13198,10 @@
         <v>522</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -13235,7 +13209,7 @@
         <v>523</v>
       </c>
       <c r="E525" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -13243,7 +13217,7 @@
         <v>524</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -13251,7 +13225,7 @@
         <v>525</v>
       </c>
       <c r="E527" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -13259,10 +13233,10 @@
         <v>526</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -13270,7 +13244,7 @@
         <v>527</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -13278,7 +13252,7 @@
         <v>528</v>
       </c>
       <c r="E530" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -13286,10 +13260,10 @@
         <v>529</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -13297,10 +13271,10 @@
         <v>530</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -13308,7 +13282,7 @@
         <v>531</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -13316,7 +13290,7 @@
         <v>532</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -13324,7 +13298,7 @@
         <v>533</v>
       </c>
       <c r="E535" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -13332,10 +13306,10 @@
         <v>534</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -13343,7 +13317,7 @@
         <v>535</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -13351,7 +13325,7 @@
         <v>536</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -13359,10 +13333,10 @@
         <v>537</v>
       </c>
       <c r="E539" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -13370,10 +13344,10 @@
         <v>538</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -13381,10 +13355,10 @@
         <v>539</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -13392,10 +13366,10 @@
         <v>540</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -13403,10 +13377,10 @@
         <v>541</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="544" spans="1:6">
@@ -13414,10 +13388,10 @@
         <v>542</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -13425,10 +13399,10 @@
         <v>543</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -13436,10 +13410,10 @@
         <v>544</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -13447,10 +13421,10 @@
         <v>545</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -13458,10 +13432,10 @@
         <v>546</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -13469,10 +13443,10 @@
         <v>547</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -13480,7 +13454,7 @@
         <v>548</v>
       </c>
       <c r="E550" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -13488,7 +13462,7 @@
         <v>549</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -13496,7 +13470,7 @@
         <v>550</v>
       </c>
       <c r="E552" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -13504,10 +13478,10 @@
         <v>551</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -13515,7 +13489,7 @@
         <v>552</v>
       </c>
       <c r="E554" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -13523,7 +13497,7 @@
         <v>553</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -13531,7 +13505,7 @@
         <v>554</v>
       </c>
       <c r="E556" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -13539,7 +13513,7 @@
         <v>555</v>
       </c>
       <c r="E557" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -13547,10 +13521,10 @@
         <v>556</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -13558,10 +13532,10 @@
         <v>557</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -13569,10 +13543,10 @@
         <v>558</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -13580,7 +13554,7 @@
         <v>559</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -13588,7 +13562,7 @@
         <v>560</v>
       </c>
       <c r="E562" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -13596,10 +13570,10 @@
         <v>561</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -13607,10 +13581,10 @@
         <v>562</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -13618,7 +13592,7 @@
         <v>563</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -13626,7 +13600,7 @@
         <v>564</v>
       </c>
       <c r="E566" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -13634,7 +13608,7 @@
         <v>565</v>
       </c>
       <c r="E567" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -13642,10 +13616,10 @@
         <v>566</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -13653,10 +13627,10 @@
         <v>567</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -13664,7 +13638,7 @@
         <v>568</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -13672,7 +13646,7 @@
         <v>569</v>
       </c>
       <c r="E571" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -13680,10 +13654,10 @@
         <v>570</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -13691,10 +13665,10 @@
         <v>571</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -13702,10 +13676,10 @@
         <v>572</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -13713,10 +13687,10 @@
         <v>573</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -13724,10 +13698,10 @@
         <v>574</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -13735,10 +13709,10 @@
         <v>575</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -13746,10 +13720,10 @@
         <v>576</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -13757,10 +13731,10 @@
         <v>577</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -13768,10 +13742,10 @@
         <v>578</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -13779,7 +13753,7 @@
         <v>579</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -13787,7 +13761,7 @@
         <v>580</v>
       </c>
       <c r="E582" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -13795,7 +13769,7 @@
         <v>581</v>
       </c>
       <c r="E583" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -13803,10 +13777,10 @@
         <v>582</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -13814,10 +13788,10 @@
         <v>583</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -13825,10 +13799,10 @@
         <v>584</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -13836,7 +13810,7 @@
         <v>585</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -13844,7 +13818,7 @@
         <v>586</v>
       </c>
       <c r="E588" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -13852,10 +13826,10 @@
         <v>587</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -13863,10 +13837,10 @@
         <v>588</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -13874,10 +13848,10 @@
         <v>589</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -13885,10 +13859,10 @@
         <v>590</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="593" spans="1:6">
@@ -13896,10 +13870,10 @@
         <v>591</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -13907,10 +13881,10 @@
         <v>592</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -13918,10 +13892,10 @@
         <v>593</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -13929,10 +13903,10 @@
         <v>594</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -13940,10 +13914,10 @@
         <v>595</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -13951,10 +13925,10 @@
         <v>596</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="599" spans="1:6">
@@ -13962,10 +13936,10 @@
         <v>597</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -13973,10 +13947,10 @@
         <v>598</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -13984,10 +13958,10 @@
         <v>599</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -13995,10 +13969,10 @@
         <v>600</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="603" spans="1:6">
@@ -14006,10 +13980,10 @@
         <v>601</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -14017,10 +13991,10 @@
         <v>602</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -14028,10 +14002,10 @@
         <v>603</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -14039,10 +14013,10 @@
         <v>604</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -14050,10 +14024,10 @@
         <v>605</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -14061,10 +14035,10 @@
         <v>606</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -14072,10 +14046,10 @@
         <v>607</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -14083,10 +14057,10 @@
         <v>608</v>
       </c>
       <c r="E610" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -14094,10 +14068,10 @@
         <v>609</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -14105,10 +14079,10 @@
         <v>610</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -14116,7 +14090,7 @@
         <v>611</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -14124,7 +14098,7 @@
         <v>612</v>
       </c>
       <c r="E614" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -14132,7 +14106,7 @@
         <v>613</v>
       </c>
       <c r="E615" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -14140,10 +14114,10 @@
         <v>614</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -14151,10 +14125,10 @@
         <v>615</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -14162,10 +14136,10 @@
         <v>616</v>
       </c>
       <c r="E618" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -14173,7 +14147,7 @@
         <v>617</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -14181,7 +14155,7 @@
         <v>618</v>
       </c>
       <c r="E620" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -14189,10 +14163,10 @@
         <v>619</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -14200,10 +14174,10 @@
         <v>620</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="623" spans="1:6">
@@ -14211,10 +14185,10 @@
         <v>621</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -14222,10 +14196,10 @@
         <v>622</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -14233,10 +14207,10 @@
         <v>623</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -14244,10 +14218,10 @@
         <v>624</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="627" spans="1:6">
@@ -14255,10 +14229,10 @@
         <v>625</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -14266,10 +14240,10 @@
         <v>626</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -14277,10 +14251,10 @@
         <v>627</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -14288,10 +14262,10 @@
         <v>628</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="631" spans="1:6">
@@ -14299,10 +14273,10 @@
         <v>629</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="632" spans="1:6">
@@ -14310,10 +14284,10 @@
         <v>630</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="633" spans="1:6">
@@ -14321,10 +14295,10 @@
         <v>631</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -14332,10 +14306,10 @@
         <v>632</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -14343,10 +14317,10 @@
         <v>633</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -14354,10 +14328,10 @@
         <v>634</v>
       </c>
       <c r="E636" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -14365,10 +14339,10 @@
         <v>635</v>
       </c>
       <c r="E637" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -14376,10 +14350,10 @@
         <v>636</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -14387,10 +14361,10 @@
         <v>637</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -14398,10 +14372,10 @@
         <v>638</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -14409,10 +14383,10 @@
         <v>639</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -14420,10 +14394,10 @@
         <v>640</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -14431,10 +14405,10 @@
         <v>641</v>
       </c>
       <c r="E643" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -14442,10 +14416,10 @@
         <v>642</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -14453,10 +14427,10 @@
         <v>643</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -14464,10 +14438,10 @@
         <v>644</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -14475,10 +14449,10 @@
         <v>645</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -14486,10 +14460,10 @@
         <v>646</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -14497,10 +14471,10 @@
         <v>647</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -14508,10 +14482,10 @@
         <v>648</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -14519,10 +14493,10 @@
         <v>649</v>
       </c>
       <c r="E651" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -14530,10 +14504,10 @@
         <v>650</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -14541,10 +14515,10 @@
         <v>651</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -14552,10 +14526,10 @@
         <v>652</v>
       </c>
       <c r="E654" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="655" spans="1:6">
@@ -14563,7 +14537,7 @@
         <v>653</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -14571,7 +14545,7 @@
         <v>654</v>
       </c>
       <c r="E656" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -14579,7 +14553,7 @@
         <v>655</v>
       </c>
       <c r="E657" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -14587,10 +14561,10 @@
         <v>656</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="659" spans="1:6">
@@ -14598,10 +14572,10 @@
         <v>657</v>
       </c>
       <c r="E659" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F659" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -14609,10 +14583,10 @@
         <v>658</v>
       </c>
       <c r="E660" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -14620,10 +14594,10 @@
         <v>659</v>
       </c>
       <c r="E661" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -14631,10 +14605,10 @@
         <v>660</v>
       </c>
       <c r="E662" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F662" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -14642,10 +14616,10 @@
         <v>661</v>
       </c>
       <c r="E663" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -14653,10 +14627,10 @@
         <v>662</v>
       </c>
       <c r="E664" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F664" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -14664,10 +14638,10 @@
         <v>663</v>
       </c>
       <c r="E665" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F665" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -14675,7 +14649,7 @@
         <v>664</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="667" spans="1:6">
@@ -14683,7 +14657,7 @@
         <v>665</v>
       </c>
       <c r="E667" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -14691,10 +14665,10 @@
         <v>666</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -14702,10 +14676,10 @@
         <v>667</v>
       </c>
       <c r="E669" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -14713,10 +14687,10 @@
         <v>668</v>
       </c>
       <c r="E670" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F670" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="671" spans="1:6">
@@ -14724,10 +14698,10 @@
         <v>669</v>
       </c>
       <c r="E671" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F671" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -14735,10 +14709,10 @@
         <v>670</v>
       </c>
       <c r="E672" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F672" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -14746,10 +14720,10 @@
         <v>671</v>
       </c>
       <c r="E673" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F673" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -14757,10 +14731,10 @@
         <v>672</v>
       </c>
       <c r="E674" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -14768,7 +14742,7 @@
         <v>673</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -14776,7 +14750,7 @@
         <v>674</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -14784,7 +14758,7 @@
         <v>675</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -14792,10 +14766,10 @@
         <v>676</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F678" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -14803,10 +14777,10 @@
         <v>677</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -14814,10 +14788,10 @@
         <v>678</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F680" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -14825,10 +14799,10 @@
         <v>679</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -14836,10 +14810,10 @@
         <v>680</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -14847,7 +14821,7 @@
         <v>681</v>
       </c>
       <c r="E683" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -14855,7 +14829,7 @@
         <v>682</v>
       </c>
       <c r="E684" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="685" spans="1:6">
@@ -14863,7 +14837,7 @@
         <v>683</v>
       </c>
       <c r="E685" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="686" spans="1:6">
@@ -14871,10 +14845,10 @@
         <v>684</v>
       </c>
       <c r="E686" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -14882,7 +14856,7 @@
         <v>685</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="688" spans="1:6">
@@ -14890,7 +14864,7 @@
         <v>686</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="689" spans="1:6">
@@ -14898,7 +14872,7 @@
         <v>687</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -14906,7 +14880,7 @@
         <v>688</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -14914,10 +14888,10 @@
         <v>689</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -14925,10 +14899,10 @@
         <v>690</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F692" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="693" spans="1:6">
@@ -14936,10 +14910,10 @@
         <v>691</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F693" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -14947,10 +14921,10 @@
         <v>692</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F694" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -14958,10 +14932,10 @@
         <v>693</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F695" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -14969,10 +14943,10 @@
         <v>694</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F696" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -14980,7 +14954,7 @@
         <v>695</v>
       </c>
       <c r="E697" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -14988,10 +14962,10 @@
         <v>696</v>
       </c>
       <c r="E698" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -14999,7 +14973,7 @@
         <v>697</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -15007,7 +14981,7 @@
         <v>698</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="701" spans="1:6">
@@ -15015,7 +14989,7 @@
         <v>699</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -15023,7 +14997,7 @@
         <v>700</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="703" spans="1:6">
@@ -15031,10 +15005,10 @@
         <v>701</v>
       </c>
       <c r="E703" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F703" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="704" spans="1:6">
@@ -15042,10 +15016,10 @@
         <v>702</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F704" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="705" spans="1:6">
@@ -15053,10 +15027,10 @@
         <v>703</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F705" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="706" spans="1:6">
@@ -15064,10 +15038,10 @@
         <v>704</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F706" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -15075,7 +15049,7 @@
         <v>705</v>
       </c>
       <c r="E707" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -15083,7 +15057,7 @@
         <v>706</v>
       </c>
       <c r="E708" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -15091,7 +15065,7 @@
         <v>707</v>
       </c>
       <c r="E709" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -15099,10 +15073,10 @@
         <v>708</v>
       </c>
       <c r="E710" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -15110,7 +15084,7 @@
         <v>709</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -15118,7 +15092,7 @@
         <v>710</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -15126,7 +15100,7 @@
         <v>711</v>
       </c>
       <c r="E713" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -15134,10 +15108,10 @@
         <v>712</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F714" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -15145,10 +15119,10 @@
         <v>713</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F715" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -15156,10 +15130,10 @@
         <v>714</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F716" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -15167,10 +15141,10 @@
         <v>715</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F717" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -15178,10 +15152,10 @@
         <v>716</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F718" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -15189,10 +15163,10 @@
         <v>717</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F719" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -15200,10 +15174,10 @@
         <v>718</v>
       </c>
       <c r="E720" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F720" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="721" spans="1:6">
@@ -15211,7 +15185,7 @@
         <v>719</v>
       </c>
       <c r="E721" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="722" spans="1:6">
@@ -15219,10 +15193,10 @@
         <v>720</v>
       </c>
       <c r="E722" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F722" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -15230,10 +15204,10 @@
         <v>721</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F723" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -15241,7 +15215,7 @@
         <v>722</v>
       </c>
       <c r="E724" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="725" spans="1:6">
@@ -15249,7 +15223,7 @@
         <v>723</v>
       </c>
       <c r="E725" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="726" spans="1:6">
@@ -15257,10 +15231,10 @@
         <v>724</v>
       </c>
       <c r="E726" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F726" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="727" spans="1:6">
@@ -15268,7 +15242,7 @@
         <v>725</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="728" spans="1:6">
@@ -15276,7 +15250,7 @@
         <v>726</v>
       </c>
       <c r="E728" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="729" spans="1:6">
@@ -15284,10 +15258,10 @@
         <v>727</v>
       </c>
       <c r="E729" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F729" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="730" spans="1:6">
@@ -15295,10 +15269,10 @@
         <v>728</v>
       </c>
       <c r="E730" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="731" spans="1:6">
@@ -15306,10 +15280,10 @@
         <v>729</v>
       </c>
       <c r="E731" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F731" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -15317,10 +15291,10 @@
         <v>730</v>
       </c>
       <c r="E732" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="733" spans="1:6">
@@ -15328,10 +15302,10 @@
         <v>731</v>
       </c>
       <c r="E733" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="734" spans="1:6">
@@ -15339,10 +15313,10 @@
         <v>732</v>
       </c>
       <c r="E734" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="735" spans="1:6">
@@ -15350,7 +15324,7 @@
         <v>733</v>
       </c>
       <c r="E735" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="736" spans="1:6">
@@ -15358,10 +15332,10 @@
         <v>734</v>
       </c>
       <c r="E736" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F736" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -15369,10 +15343,10 @@
         <v>735</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F737" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -15380,7 +15354,7 @@
         <v>736</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -15388,7 +15362,7 @@
         <v>737</v>
       </c>
       <c r="D739" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -15396,7 +15370,7 @@
         <v>738</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -15404,10 +15378,10 @@
         <v>739</v>
       </c>
       <c r="E741" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F741" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -15415,10 +15389,10 @@
         <v>740</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F742" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -15426,10 +15400,10 @@
         <v>741</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F743" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -15437,10 +15411,10 @@
         <v>742</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F744" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -15448,7 +15422,7 @@
         <v>743</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -15456,7 +15430,7 @@
         <v>744</v>
       </c>
       <c r="D746" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -15464,7 +15438,7 @@
         <v>745</v>
       </c>
       <c r="E747" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -15472,10 +15446,10 @@
         <v>746</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -15483,10 +15457,10 @@
         <v>747</v>
       </c>
       <c r="E749" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F749" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -15494,7 +15468,7 @@
         <v>748</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="751" spans="1:6">
@@ -15502,7 +15476,7 @@
         <v>749</v>
       </c>
       <c r="E751" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="752" spans="1:6">
@@ -15510,10 +15484,10 @@
         <v>750</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F752" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="753" spans="1:6">
@@ -15521,10 +15495,10 @@
         <v>751</v>
       </c>
       <c r="E753" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F753" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="754" spans="1:6">
@@ -15532,7 +15506,7 @@
         <v>752</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="755" spans="1:6">
@@ -15540,7 +15514,7 @@
         <v>753</v>
       </c>
       <c r="E755" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="756" spans="1:6">
@@ -15548,10 +15522,10 @@
         <v>754</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F756" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="757" spans="1:6">
@@ -15559,10 +15533,10 @@
         <v>755</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F757" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="758" spans="1:6">
@@ -15570,10 +15544,10 @@
         <v>756</v>
       </c>
       <c r="E758" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F758" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="759" spans="1:6">
@@ -15581,7 +15555,7 @@
         <v>757</v>
       </c>
       <c r="E759" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="760" spans="1:6">
@@ -15589,7 +15563,7 @@
         <v>758</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="761" spans="1:6">
@@ -15597,7 +15571,7 @@
         <v>759</v>
       </c>
       <c r="E761" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="762" spans="1:6">
@@ -15605,7 +15579,7 @@
         <v>760</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="763" spans="1:6">
@@ -15613,10 +15587,10 @@
         <v>761</v>
       </c>
       <c r="E763" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F763" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="764" spans="1:6">
@@ -15624,7 +15598,7 @@
         <v>762</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -15632,7 +15606,7 @@
         <v>763</v>
       </c>
       <c r="E765" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -15640,10 +15614,10 @@
         <v>764</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F766" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="767" spans="1:6">
@@ -15651,10 +15625,10 @@
         <v>765</v>
       </c>
       <c r="E767" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F767" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -15662,7 +15636,7 @@
         <v>766</v>
       </c>
       <c r="E768" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -15670,7 +15644,7 @@
         <v>767</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -15678,7 +15652,7 @@
         <v>768</v>
       </c>
       <c r="E770" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -15686,7 +15660,7 @@
         <v>769</v>
       </c>
       <c r="E771" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -15694,7 +15668,7 @@
         <v>770</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -15702,7 +15676,7 @@
         <v>771</v>
       </c>
       <c r="E773" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -15710,10 +15684,10 @@
         <v>772</v>
       </c>
       <c r="E774" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F774" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -15721,10 +15695,10 @@
         <v>773</v>
       </c>
       <c r="E775" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F775" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -15732,10 +15706,10 @@
         <v>774</v>
       </c>
       <c r="E776" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F776" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -15743,7 +15717,7 @@
         <v>775</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -15751,7 +15725,7 @@
         <v>776</v>
       </c>
       <c r="E778" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -15759,7 +15733,7 @@
         <v>777</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="780" spans="1:6">
@@ -15767,7 +15741,7 @@
         <v>778</v>
       </c>
       <c r="E780" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="781" spans="1:6">
@@ -15775,7 +15749,7 @@
         <v>779</v>
       </c>
       <c r="E781" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="782" spans="1:6">
@@ -15783,10 +15757,10 @@
         <v>780</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F782" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="783" spans="1:6">
@@ -15794,10 +15768,10 @@
         <v>781</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F783" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="784" spans="1:6">
@@ -15805,10 +15779,10 @@
         <v>782</v>
       </c>
       <c r="E784" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F784" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="785" spans="1:6">
@@ -15816,7 +15790,7 @@
         <v>783</v>
       </c>
       <c r="E785" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="786" spans="1:6">
@@ -15824,7 +15798,7 @@
         <v>784</v>
       </c>
       <c r="E786" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="787" spans="1:6">
@@ -15832,10 +15806,10 @@
         <v>785</v>
       </c>
       <c r="E787" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F787" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="788" spans="1:6">
@@ -15843,10 +15817,10 @@
         <v>786</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F788" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="789" spans="1:6">
@@ -15854,7 +15828,7 @@
         <v>787</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="790" spans="1:6">
@@ -15862,7 +15836,7 @@
         <v>788</v>
       </c>
       <c r="E790" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="791" spans="1:6">
@@ -15870,7 +15844,7 @@
         <v>789</v>
       </c>
       <c r="E791" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="792" spans="1:6">
@@ -15878,10 +15852,10 @@
         <v>790</v>
       </c>
       <c r="E792" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F792" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -15889,10 +15863,10 @@
         <v>791</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F793" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="794" spans="1:6">
@@ -15900,10 +15874,10 @@
         <v>792</v>
       </c>
       <c r="E794" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F794" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="795" spans="1:6">
@@ -15911,7 +15885,7 @@
         <v>793</v>
       </c>
       <c r="E795" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="796" spans="1:6">
@@ -15919,7 +15893,7 @@
         <v>794</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="797" spans="1:6">
@@ -15927,7 +15901,7 @@
         <v>795</v>
       </c>
       <c r="E797" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="798" spans="1:6">
@@ -15935,7 +15909,7 @@
         <v>796</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
